--- a/experiments/bestviewpoint_survey_responses.xlsx
+++ b/experiments/bestviewpoint_survey_responses.xlsx
@@ -341,15 +341,15 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1123" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1119" activeCellId="0" sqref="A1119:A1149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A616" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D627" activeCellId="9" sqref="D197 D206 D218 D565 D588 D593 D596:D597 D603 D622 D627:D628 D631 D636 D642 D644 D647 D659 D673 D677"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.84"/>
   </cols>
@@ -3109,7 +3109,7 @@
         <v>8.5</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,7 +3235,7 @@
         <v>9</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,7 +3403,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,7 +3767,7 @@
         <v>10</v>
       </c>
       <c r="D244" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,7 +5909,7 @@
         <v>10</v>
       </c>
       <c r="D397" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6903,7 +6903,7 @@
         <v>8</v>
       </c>
       <c r="D468" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8233,7 +8233,7 @@
         <v>9</v>
       </c>
       <c r="D563" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8261,7 +8261,7 @@
         <v>8</v>
       </c>
       <c r="D565" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8541,7 +8541,7 @@
         <v>9</v>
       </c>
       <c r="D585" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8583,7 +8583,7 @@
         <v>8</v>
       </c>
       <c r="D588" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8653,7 +8653,7 @@
         <v>9</v>
       </c>
       <c r="D593" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8695,7 +8695,7 @@
         <v>10</v>
       </c>
       <c r="D596" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8709,7 +8709,7 @@
         <v>8.5</v>
       </c>
       <c r="D597" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8779,7 +8779,7 @@
         <v>10</v>
       </c>
       <c r="D602" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8793,7 +8793,7 @@
         <v>8</v>
       </c>
       <c r="D603" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8849,7 +8849,7 @@
         <v>9</v>
       </c>
       <c r="D607" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8877,7 +8877,7 @@
         <v>10</v>
       </c>
       <c r="D609" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8933,7 +8933,7 @@
         <v>9</v>
       </c>
       <c r="D613" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9059,7 +9059,7 @@
         <v>9</v>
       </c>
       <c r="D622" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9087,7 +9087,7 @@
         <v>9</v>
       </c>
       <c r="D624" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9101,7 +9101,7 @@
         <v>10</v>
       </c>
       <c r="D625" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9129,7 +9129,7 @@
         <v>9</v>
       </c>
       <c r="D627" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9143,7 +9143,7 @@
         <v>8</v>
       </c>
       <c r="D628" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9185,7 +9185,7 @@
         <v>8</v>
       </c>
       <c r="D631" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9255,7 +9255,7 @@
         <v>8</v>
       </c>
       <c r="D636" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9339,7 +9339,7 @@
         <v>9</v>
       </c>
       <c r="D642" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9367,7 +9367,7 @@
         <v>10</v>
       </c>
       <c r="D644" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9409,7 +9409,7 @@
         <v>9</v>
       </c>
       <c r="D647" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9521,7 +9521,7 @@
         <v>9</v>
       </c>
       <c r="D655" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9577,7 +9577,7 @@
         <v>7</v>
       </c>
       <c r="D659" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9773,7 +9773,7 @@
         <v>9</v>
       </c>
       <c r="D673" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9829,7 +9829,7 @@
         <v>8</v>
       </c>
       <c r="D677" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
